--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 10 (42, 52, 20, 51, 40)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(42, 52, 20, 51, 40)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -453,13 +453,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.845253823297794E-08</v>
+        <v>0.9627400996585722</v>
       </c>
       <c r="E2">
-        <v>4.845253823297794E-08</v>
+        <v>0.9627400996585722</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0001245983127287619</v>
+        <v>1.984508027770155E-05</v>
       </c>
       <c r="E3">
-        <v>0.0001245983127287619</v>
+        <v>1.984508027770155E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999999999949</v>
+        <v>0.9999999999999942</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999949</v>
+        <v>0.9999999999999942</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999956</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999989</v>
+        <v>0.9999999999999956</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.934921754010878E-16</v>
+        <v>1.501740340712968E-11</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999849826</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.999999985504719</v>
+        <v>0.9999659986334436</v>
       </c>
       <c r="E9">
-        <v>1.449528097552388E-08</v>
+        <v>3.400136655640207E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.113789832210274E-06</v>
+        <v>5.333455705050096E-10</v>
       </c>
       <c r="E10">
-        <v>0.9999958862101678</v>
+        <v>0.9999999994666544</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.164873796042675E-16</v>
+        <v>2.732198292237394E-11</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999996</v>
+        <v>0.999999999972678</v>
       </c>
       <c r="F11">
-        <v>22.1358470916748</v>
+        <v>17.5637035369873</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
